--- a/08DataBase/sql/database Excel.xlsx
+++ b/08DataBase/sql/database Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Products</t>
   </si>
@@ -109,6 +109,66 @@
   </si>
   <si>
     <t>OrderDate</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Task1</t>
+  </si>
+  <si>
+    <t>Task2</t>
+  </si>
+  <si>
+    <t>Task3</t>
+  </si>
+  <si>
+    <t>TaskId</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>TaskName</t>
+  </si>
+  <si>
+    <t>create that relationship</t>
+  </si>
+  <si>
+    <t>post the data</t>
+  </si>
+  <si>
+    <t>req.body</t>
+  </si>
+  <si>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>localfeild</t>
+  </si>
+  <si>
+    <t>forignfeild</t>
   </si>
 </sst>
 </file>
@@ -124,12 +184,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -159,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,6 +246,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A15" sqref="A15:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,9 +574,11 @@
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="8" max="8" width="17.26953125" customWidth="1"/>
     <col min="9" max="9" width="15.36328125" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,14 +592,14 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -522,21 +611,21 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="1">
@@ -548,21 +637,21 @@
       <c r="F3" s="1">
         <v>20</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="1">
@@ -574,22 +663,22 @@
       <c r="F4" s="1">
         <v>30</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <f>+A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="1">
@@ -601,22 +690,22 @@
       <c r="F5" s="1">
         <v>30</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <f t="shared" ref="A6:A11" si="0">+A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="1">
@@ -628,22 +717,22 @@
       <c r="F6" s="1">
         <v>20</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="1">
@@ -655,22 +744,22 @@
       <c r="F7" s="1">
         <v>10</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="1">
@@ -682,22 +771,22 @@
       <c r="F8" s="1">
         <v>30</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>6</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" s="1">
@@ -709,22 +798,25 @@
       <c r="F9" s="1">
         <v>20</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>7</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>2</v>
       </c>
       <c r="D10" s="1">
@@ -736,22 +828,22 @@
       <c r="F10" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>8</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>2</v>
       </c>
       <c r="D11" s="1">
@@ -763,22 +855,22 @@
       <c r="F11" s="1">
         <v>30</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>9</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <f t="shared" ref="A12" si="1">+A11+1</f>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>3</v>
       </c>
       <c r="D12" s="1">
@@ -790,20 +882,28 @@
       <c r="F12" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -813,15 +913,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
         <v>1</v>
       </c>
       <c r="B16" s="3">
         <f ca="1">TODAY()</f>
-        <v>45489</v>
-      </c>
-      <c r="C16" s="1">
+        <v>45527</v>
+      </c>
+      <c r="C16" s="5">
         <v>9</v>
       </c>
       <c r="D16" s="1">
@@ -830,16 +930,22 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
         <v>2</v>
       </c>
       <c r="B17" s="3">
         <f ca="1">TODAY()</f>
-        <v>45489</v>
-      </c>
-      <c r="C17" s="1">
+        <v>45527</v>
+      </c>
+      <c r="C17" s="5">
         <v>2</v>
       </c>
       <c r="D17" s="1">
@@ -847,6 +953,94 @@
       </c>
       <c r="E17" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
